--- a/ReportQ1/CodQ1.xlsx
+++ b/ReportQ1/CodQ1.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workstation\Dropbox\DataCenter\GHTK\GHTK_Reports\ReportQ1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F08ADF-B19E-4A5F-B5C1-8E84E7475E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="15945" windowHeight="8070"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$122</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -421,7 +430,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,282 +466,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,9 +555,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,6 +607,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1024,11 +799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +817,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1169,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1233,7 +1009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1289,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1361,7 +1137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1385,7 +1161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1393,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1401,7 +1177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1409,7 +1185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1417,7 +1193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1425,7 +1201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1433,7 +1209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1441,7 +1217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +1225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1457,7 +1233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1465,7 +1241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1481,7 +1257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1497,7 +1273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1505,7 +1281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1513,7 +1289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1521,7 +1297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1529,7 +1305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1537,7 +1313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1553,7 +1329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1561,7 +1337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1569,7 +1345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1577,7 +1353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1585,7 +1361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -1593,7 +1369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -1601,7 +1377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1609,7 +1385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -1649,7 +1425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -1657,7 +1433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -1673,7 +1449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -1681,7 +1457,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -1689,7 +1465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +1473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -1705,7 +1481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1721,7 +1497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -1729,7 +1505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -1737,7 +1513,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1745,7 +1521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -1753,7 +1529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -1761,7 +1537,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -1769,7 +1545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -1777,7 +1553,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -1785,7 +1561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -1793,7 +1569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1801,7 +1577,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -1809,7 +1585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -1817,7 +1593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -1825,7 +1601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -1833,7 +1609,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1841,7 +1617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -1849,7 +1625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -1857,7 +1633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -1865,7 +1641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -1873,7 +1649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -1881,7 +1657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1889,7 +1665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -1897,7 +1673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -1905,7 +1681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -1913,7 +1689,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -1921,7 +1697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -1929,7 +1705,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -1937,7 +1713,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -1945,7 +1721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -1953,7 +1729,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -1961,7 +1737,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>106</v>
       </c>
@@ -1969,7 +1745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>106</v>
       </c>
@@ -1977,7 +1753,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -1985,7 +1761,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -1993,7 +1769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>106</v>
       </c>
@@ -2001,7 +1777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>106</v>
       </c>
@@ -2016,6 +1792,14 @@
     <protectedRange sqref="A106:A107 A111 A116:A118 A120:A122" name="Range1_3"/>
     <protectedRange sqref="A109:A110" name="Range1_10"/>
   </protectedRanges>
+  <autoFilter ref="A1:B122" xr:uid="{08266A02-B497-48BC-BB0F-441B08051D1E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="T3804-Lê Nguyễn Minh Tuệ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>